--- a/Scenarios/common/Nnorm_2019_yields.xlsx
+++ b/Scenarios/common/Nnorm_2019_yields.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="351">
   <si>
     <t>Afgrøde</t>
   </si>
@@ -1082,6 +1082,9 @@
   </si>
   <si>
     <t>yield_JB 1+3</t>
+  </si>
+  <si>
+    <t>afgkode</t>
   </si>
 </sst>
 </file>
@@ -1476,19 +1479,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>350</v>
       </c>
       <c r="B1" t="s">
         <v>338</v>

--- a/Scenarios/common/Nnorm_2019_yields.xlsx
+++ b/Scenarios/common/Nnorm_2019_yields.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="354">
   <si>
     <t>Afgrøde</t>
   </si>
@@ -1087,10 +1087,13 @@
     <t>afgkode</t>
   </si>
   <si>
-    <t>Yield_faktor</t>
-  </si>
-  <si>
     <t>yieldkgNha</t>
+  </si>
+  <si>
+    <t>yieldfaktorDM</t>
+  </si>
+  <si>
+    <t>yieldfaktorN</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1101,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1173,8 +1176,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,7 +1496,7 @@
   <dimension ref="A1:Q328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1519,7 +1522,7 @@
         <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
         <v>338</v>
@@ -1561,6 +1564,9 @@
         <v>348</v>
       </c>
       <c r="P1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q1" t="s">
         <v>352</v>
       </c>
     </row>
@@ -1615,6 +1621,9 @@
         <f>K2*B2</f>
         <v>74.084210526315786</v>
       </c>
+      <c r="Q2">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1667,6 +1676,9 @@
         <f>K3*B3</f>
         <v>70.311403508771932</v>
       </c>
+      <c r="Q3">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1719,6 +1731,9 @@
         <f t="shared" ref="P4:P18" si="0">K4*B4</f>
         <v>91.03947368421052</v>
       </c>
+      <c r="Q4">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1771,6 +1786,9 @@
         <f t="shared" si="0"/>
         <v>92.60526315789474</v>
       </c>
+      <c r="Q5">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1823,6 +1841,9 @@
         <f t="shared" si="0"/>
         <v>71.578947368421055</v>
       </c>
+      <c r="Q6">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1875,6 +1896,9 @@
         <f t="shared" si="0"/>
         <v>94.447368421052644</v>
       </c>
+      <c r="Q7">
+        <v>0.92500000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1927,7 +1951,9 @@
         <f>K8*B8</f>
         <v>161.43157894736842</v>
       </c>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="9">
+        <v>0.85199999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1979,6 +2005,9 @@
       <c r="P9" s="10">
         <v>50</v>
       </c>
+      <c r="Q9">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2030,6 +2059,9 @@
       <c r="P10" s="10">
         <v>100</v>
       </c>
+      <c r="Q10">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2080,6 +2112,9 @@
       </c>
       <c r="P11" s="11">
         <v>130</v>
+      </c>
+      <c r="Q11">
+        <v>0.22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">

--- a/Scenarios/common/Nnorm_2019_yields.xlsx
+++ b/Scenarios/common/Nnorm_2019_yields.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tqc268\Desktop\Github\StyrN\Scenarios\common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11355"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25200" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1097,7 +1092,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1483,7 +1478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1494,7 +1489,7 @@
   <dimension ref="A1:L328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10608,7 +10603,7 @@
         <v>65</v>
       </c>
       <c r="N2" s="10">
-        <f>J2*B2</f>
+        <f t="shared" ref="N2:N8" si="0">J2*B2</f>
         <v>74.084210526315786</v>
       </c>
       <c r="O2">
@@ -10657,7 +10652,7 @@
         <v>58</v>
       </c>
       <c r="N3" s="10">
-        <f>J3*B3</f>
+        <f t="shared" si="0"/>
         <v>70.311403508771932</v>
       </c>
       <c r="O3">
@@ -10706,7 +10701,7 @@
         <v>78</v>
       </c>
       <c r="N4" s="10">
-        <f>J4*B4</f>
+        <f t="shared" si="0"/>
         <v>91.03947368421052</v>
       </c>
       <c r="O4">
@@ -10718,7 +10713,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10">
-        <f t="shared" ref="B5" si="0">0.85*0.115*100/5.7</f>
+        <f t="shared" ref="B5" si="1">0.85*0.115*100/5.7</f>
         <v>1.7149122807017545</v>
       </c>
       <c r="C5" t="s">
@@ -10755,7 +10750,7 @@
         <v>86</v>
       </c>
       <c r="N5" s="10">
-        <f>J5*B5</f>
+        <f t="shared" si="0"/>
         <v>92.60526315789474</v>
       </c>
       <c r="O5">
@@ -10804,7 +10799,7 @@
         <v>75</v>
       </c>
       <c r="N6" s="10">
-        <f>J6*B6</f>
+        <f t="shared" si="0"/>
         <v>71.578947368421055</v>
       </c>
       <c r="O6">
@@ -10853,7 +10848,7 @@
         <v>43</v>
       </c>
       <c r="N7" s="10">
-        <f>J7*B7</f>
+        <f t="shared" si="0"/>
         <v>94.447368421052644</v>
       </c>
       <c r="O7">
@@ -10902,7 +10897,7 @@
         <v>45</v>
       </c>
       <c r="N8" s="10">
-        <f>J8*B8</f>
+        <f t="shared" si="0"/>
         <v>161.43157894736842</v>
       </c>
       <c r="O8" s="9">
@@ -11095,7 +11090,7 @@
         <v>11000</v>
       </c>
       <c r="N12" s="11">
-        <f>J12*B12</f>
+        <f t="shared" ref="N12:N18" si="2">J12*B12</f>
         <v>145.53695999999999</v>
       </c>
     </row>
@@ -11141,7 +11136,7 @@
         <v>4100</v>
       </c>
       <c r="N13" s="11">
-        <f>J13*B13</f>
+        <f t="shared" si="2"/>
         <v>94.348799999999997</v>
       </c>
     </row>
@@ -11187,7 +11182,7 @@
         <v>3100</v>
       </c>
       <c r="N14" s="11">
-        <f>J14*B14</f>
+        <f t="shared" si="2"/>
         <v>115.072</v>
       </c>
     </row>
@@ -11233,7 +11228,7 @@
         <v>7500</v>
       </c>
       <c r="N15" s="10">
-        <f>J15*B15</f>
+        <f t="shared" si="2"/>
         <v>203.78880000000001</v>
       </c>
     </row>
@@ -11279,7 +11274,7 @@
         <v>8800</v>
       </c>
       <c r="N16" s="10">
-        <f>J16*B16</f>
+        <f t="shared" si="2"/>
         <v>266.48160000000001</v>
       </c>
     </row>
@@ -11325,7 +11320,7 @@
         <v>7600</v>
       </c>
       <c r="N17" s="10">
-        <f>J17*B17</f>
+        <f t="shared" si="2"/>
         <v>237.79887999999997</v>
       </c>
       <c r="O17" s="11"/>
@@ -11372,7 +11367,7 @@
         <v>3900</v>
       </c>
       <c r="N18" s="10">
-        <f>J18*B18</f>
+        <f t="shared" si="2"/>
         <v>130.04544000000001</v>
       </c>
     </row>
@@ -20993,8 +20988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S327"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
